--- a/Dados_Trat.xlsx
+++ b/Dados_Trat.xlsx
@@ -1,12 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\10°Período\Tópicos_Esp_4\Projeto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BA57D2-0ABF-40B0-8E41-1BAB5AD1DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{E8FB40AC-E703-47F8-B0E7-22FF5B471A90}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,21 +48,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -56,7 +72,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,124 +82,215 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF83CAEB"/>
+          <bgColor rgb="FF83CAEB"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC1E4F5"/>
           <bgColor rgb="FFC1E4F5"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF83CAEB"/>
-          <bgColor rgb="FF83CAEB"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="Página1-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Página1-style" pivot="0" count="2" xr9:uid="{604D0932-EBE1-419C-BC4F-023ADB5D7CF1}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="D146:D153" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{738196FD-AAF2-4AE4-9F0B-4335D1E480BF}" name="Table_1" displayName="Table_1" ref="D146:D153" headerRowCount="0">
   <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
+    <tableColumn id="1" xr3:uid="{B542AC4B-7458-49C8-8C0C-07D491D4D4D8}" name="Column1"/>
   </tableColumns>
-  <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Página1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -324,20 +431,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDB0E0B-61E1-40C3-9374-A3B1170D80B4}">
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,3211 +471,3340 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>316.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>523.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>731.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>1165.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1579.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1787.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2332.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>208.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>419.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>628.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>835.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
-        <v>1485.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3">
-        <v>1689.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2333.0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
-        <v>2103.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>207.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>615.2000000000007</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>615.20000000000073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>999.2000000000007</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>999.20000000000073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
         <v>1209.2000000000007</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3">
         <v>1416.2000000000007</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3">
         <v>1553.2000000000007</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2334.0</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="3">
-        <v>1753.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>2335.0</v>
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="e">
+        <f>VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>2335.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="e">
+        <f t="shared" ref="A28:A91" si="0">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>213.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>2335.0</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="e">
+        <f t="shared" ref="A29:A92" si="1">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>362.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>2335.0</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="e">
+        <f t="shared" ref="A30:A93" si="2">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>570.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>2335.0</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="e">
+        <f t="shared" ref="A31:A94" si="3">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B31" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>776.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>2335.0</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="e">
+        <f t="shared" ref="A32:A95" si="4">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
-        <v>1161.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>2335.0</v>
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="e">
+        <f t="shared" ref="A33:A96" si="5">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3">
-        <v>1348.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>2335.0</v>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="e">
+        <f t="shared" ref="A34:A97" si="6">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3">
-        <v>1497.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>2335.0</v>
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="e">
+        <f t="shared" ref="A35:A98" si="7">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>1716.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>2336.0</v>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="e">
+        <f t="shared" ref="A36:A99" si="8">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>2336.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="e">
+        <f t="shared" ref="A37:A100" si="9">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>208.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>2336.0</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="e">
+        <f t="shared" ref="A38:A101" si="10">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3">
-        <v>415.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>2336.0</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="e">
+        <f t="shared" ref="A39:A102" si="11">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F39" s="3">
-        <v>829.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>2336.0</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="e">
+        <f t="shared" ref="A40:A103" si="12">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3">
-        <v>1634.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>2336.0</v>
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="e">
+        <f t="shared" ref="A41:A104" si="13">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3">
-        <v>1843.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>2336.0</v>
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="e">
+        <f t="shared" ref="A42:A105" si="14">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F42" s="3">
-        <v>2050.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>2336.0</v>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="e">
+        <f t="shared" ref="A43:A106" si="15">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B43" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F43" s="3">
-        <v>2441.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>2337.0</v>
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="e">
+        <f t="shared" ref="A44:A107" si="16">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>2337.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="e">
+        <f t="shared" ref="A45:A108" si="17">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="3">
-        <v>277.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>2337.0</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="e">
+        <f t="shared" ref="A46:A109" si="18">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
-        <v>424.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>2337.0</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="e">
+        <f t="shared" ref="A47:A110" si="19">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F47" s="3">
-        <v>1171.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>2337.0</v>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="e">
+        <f t="shared" ref="A48:A111" si="20">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="F48" s="3">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>2337.0</v>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="e">
+        <f t="shared" ref="A49:A112" si="21">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F49" s="3">
-        <v>1447.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>2337.0</v>
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="e">
+        <f t="shared" ref="A50:A113" si="22">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="F50" s="3">
-        <v>1651.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>2338.0</v>
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="e">
+        <f t="shared" ref="A51:A114" si="23">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>2338.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="e">
+        <f t="shared" ref="A52:A115" si="24">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>207.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>2338.0</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="e">
+        <f t="shared" ref="A53:A116" si="25">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3">
-        <v>344.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>2338.0</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="e">
+        <f t="shared" ref="A54:A117" si="26">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3">
-        <v>494.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>2338.0</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="e">
+        <f t="shared" ref="A55:A118" si="27">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B55" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F55" s="3">
-        <v>1175.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>2338.0</v>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="e">
+        <f t="shared" ref="A56:A119" si="28">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3">
-        <v>1573.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>2339.0</v>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="e">
+        <f t="shared" ref="A57:A120" si="29">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>2339.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="e">
+        <f t="shared" ref="A58:A121" si="30">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F58" s="3">
-        <v>1751.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>2339.0</v>
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="e">
+        <f t="shared" ref="A59:A122" si="31">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D59" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F59" s="3">
-        <v>1951.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>2339.0</v>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="e">
+        <f t="shared" ref="A60:A123" si="32">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F60" s="3">
-        <v>2150.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>2339.0</v>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="e">
+        <f t="shared" ref="A61:A124" si="33">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B61" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F61" s="3">
-        <v>2220.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>2339.0</v>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="e">
+        <f t="shared" ref="A62:A125" si="34">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B62" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D62" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F62" s="3">
-        <v>2478.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>2339.0</v>
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="e">
+        <f t="shared" ref="A63:A126" si="35">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B63" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F63" s="3">
-        <v>3096.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>2339.0</v>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="e">
+        <f t="shared" ref="A64:A127" si="36">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B64" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D64" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F64" s="3">
-        <v>3618.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>2339.0</v>
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="e">
+        <f t="shared" ref="A65:A128" si="37">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B65" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F65" s="3">
-        <v>3720.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>2339.0</v>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="e">
+        <f t="shared" ref="A66:A129" si="38">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="F66" s="3">
-        <v>3850.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>2340.0</v>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="e">
+        <f t="shared" ref="A67:A130" si="39">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>2340.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="e">
+        <f t="shared" ref="A68:A131" si="40">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B68" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D68" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F68" s="3">
-        <v>1603.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>2340.0</v>
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="e">
+        <f t="shared" ref="A69:A132" si="41">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B69" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D69" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E69" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F69" s="3">
-        <v>1712.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>2340.0</v>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="e">
+        <f t="shared" ref="A70:A133" si="42">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B70" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F70" s="3">
-        <v>1931.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>2340.0</v>
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="e">
+        <f t="shared" ref="A71:A134" si="43">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B71" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F71" s="3">
-        <v>2039.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>2340.0</v>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="e">
+        <f t="shared" ref="A72:A135" si="44">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B72" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F72" s="3">
-        <v>2455.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>2340.0</v>
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="e">
+        <f t="shared" ref="A73:A136" si="45">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B73" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E73" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F73" s="3">
-        <v>2563.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>2340.0</v>
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="e">
+        <f t="shared" ref="A74:A137" si="46">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B74" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F74" s="3">
-        <v>2713.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>2340.0</v>
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="e">
+        <f t="shared" ref="A75:A138" si="47">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B75" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D75" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E75" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F75" s="3">
-        <v>2875.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>2342.0</v>
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="e">
+        <f t="shared" ref="A76:A139" si="48">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>2342.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="e">
+        <f t="shared" ref="A77:A140" si="49">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="3">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>2342.0</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="e">
+        <f t="shared" ref="A78:A141" si="50">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>311.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>2342.0</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="e">
+        <f t="shared" ref="A79:A142" si="51">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3">
-        <v>419.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>2342.0</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="e">
+        <f t="shared" ref="A80:A143" si="52">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F80" s="3">
-        <v>735.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>2342.0</v>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="e">
+        <f t="shared" ref="A81:A144" si="53">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F81" s="3">
-        <v>905.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>2342.0</v>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="e">
+        <f t="shared" ref="A82:A145" si="54">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F82" s="3">
-        <v>1042.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>2342.0</v>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="e">
+        <f t="shared" ref="A83:A146" si="55">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B83" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E83" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F83" s="3">
-        <v>1208.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>2342.0</v>
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="e">
+        <f t="shared" ref="A84:A147" si="56">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B84" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D84" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E84" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F84" s="3">
-        <v>1544.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>2342.0</v>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="e">
+        <f t="shared" ref="A85:A148" si="57">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B85" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D85" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F85" s="3">
-        <v>1725.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>2344.0</v>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="e">
+        <f t="shared" ref="A86:A149" si="58">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B86" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>2344.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="e">
+        <f t="shared" ref="A87:A150" si="59">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B87" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D87" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F87" s="3">
-        <v>1179.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>2344.0</v>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="e">
+        <f t="shared" ref="A88:A151" si="60">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B88" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3">
-        <v>1387.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>2344.0</v>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="e">
+        <f t="shared" ref="A89:A152" si="61">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B89" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F89" s="3">
-        <v>1593.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>2344.0</v>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="e">
+        <f t="shared" ref="A90:A153" si="62">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B90" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F90" s="3">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>2344.0</v>
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="e">
+        <f t="shared" ref="A91:A154" si="63">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B91" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E91" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F91" s="3">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>2344.0</v>
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="e">
+        <f t="shared" ref="A92:A155" si="64">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B92" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D92" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E92" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F92" s="3">
-        <v>2528.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>2344.0</v>
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="e">
+        <f t="shared" ref="A93:A156" si="65">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B93" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C93" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E93" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F93" s="3">
-        <v>3132.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>2344.0</v>
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="e">
+        <f t="shared" ref="A94:A157" si="66">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B94" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E94" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="F94" s="3">
-        <v>3263.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>2345.0</v>
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="e">
+        <f t="shared" ref="A95:A158" si="67">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B95" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>2345.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="e">
+        <f t="shared" ref="A96:A159" si="68">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B96" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>2345.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="e">
+        <f t="shared" ref="A97:A160" si="69">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B97" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E97" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F97" s="3">
-        <v>306.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>2345.0</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="e">
+        <f t="shared" ref="A98:A161" si="70">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B98" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E98" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F98" s="3">
-        <v>494.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>2345.0</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="e">
+        <f t="shared" ref="A99:A161" si="71">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B99" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E99" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="F99" s="3">
-        <v>990.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>2345.0</v>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="e">
+        <f t="shared" ref="A100:A161" si="72">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B100" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="F100" s="3">
-        <v>1166.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>2346.0</v>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="e">
+        <f t="shared" ref="A101:A161" si="73">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B101" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>2346.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="e">
+        <f t="shared" ref="A102:A161" si="74">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B102" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="3">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>2346.0</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="e">
+        <f t="shared" ref="A103:A161" si="75">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B103" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="3">
-        <v>228.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>2346.0</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="e">
+        <f t="shared" ref="A104:A161" si="76">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B104" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3">
-        <v>424.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>2346.0</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="e">
+        <f t="shared" ref="A105:A161" si="77">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B105" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F105" s="3">
-        <v>847.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>2346.0</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="e">
+        <f t="shared" ref="A106:A161" si="78">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B106" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E106" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F106" s="3">
-        <v>1758.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>2346.0</v>
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="e">
+        <f t="shared" ref="A107:A161" si="79">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B107" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C107" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D107" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E107" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F107" s="3">
-        <v>1888.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>2347.0</v>
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="e">
+        <f t="shared" ref="A108:A161" si="80">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B108" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D108" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>2347.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="e">
+        <f t="shared" ref="A109:A161" si="81">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B109" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D109" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E109" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>1244.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>2347.0</v>
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="e">
+        <f t="shared" ref="A110:A161" si="82">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B110" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E110" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F110" s="3">
-        <v>1392.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>2347.0</v>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="e">
+        <f t="shared" ref="A111:A161" si="83">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B111" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D111" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E111" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F111" s="3">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>2347.0</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="e">
+        <f t="shared" ref="A112:A161" si="84">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B112" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D112" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E112" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="3">
-        <v>1749.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>2347.0</v>
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="e">
+        <f t="shared" ref="A113:A161" si="85">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B113" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C113" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E113" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F113" s="3">
-        <v>2278.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>2347.0</v>
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="e">
+        <f t="shared" ref="A114:A161" si="86">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B114" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C114" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D114" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E114" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F114" s="3">
-        <v>2467.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>2347.0</v>
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="e">
+        <f t="shared" ref="A115:A161" si="87">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B115" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D115" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E115" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F115" s="3">
-        <v>2675.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>2347.0</v>
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="e">
+        <f t="shared" ref="A116:A161" si="88">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B116" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D116" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E116" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F116" s="3">
-        <v>2843.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>2347.0</v>
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="e">
+        <f t="shared" ref="A117:A161" si="89">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B117" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C117" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D117" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E117" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F117" s="3">
-        <v>3348.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>2347.0</v>
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="e">
+        <f t="shared" ref="A118:A161" si="90">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B118" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C118" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E118" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F118" s="3">
-        <v>3434.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>2350.0</v>
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="e">
+        <f t="shared" ref="A119:A161" si="91">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B119" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D119" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>2350.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="e">
+        <f t="shared" ref="A120:A161" si="92">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B120" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="3">
-        <v>209.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>2350.0</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="e">
+        <f t="shared" ref="A121:A161" si="93">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B121" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E121" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F121" s="3">
-        <v>624.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>2350.0</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="e">
+        <f t="shared" ref="A122:A161" si="94">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B122" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C122" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D122" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E122" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F122" s="3">
-        <v>951.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>2350.0</v>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="e">
+        <f t="shared" ref="A123:A161" si="95">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B123" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F123" s="3">
-        <v>1160.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>2350.0</v>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="e">
+        <f t="shared" ref="A124:A161" si="96">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B124" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D124" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E124" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="F124" s="3">
-        <v>1235.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>2351.0</v>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="e">
+        <f t="shared" ref="A125:A161" si="97">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B125" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D125" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F125" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>2351.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="e">
+        <f t="shared" ref="A126:A161" si="98">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B126" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D126" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F126" s="3">
-        <v>196.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>2351.0</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="e">
+        <f t="shared" ref="A127:A161" si="99">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B127" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D127" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="3">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>2351.0</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="e">
+        <f t="shared" ref="A128:A161" si="100">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B128" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E128" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F128" s="3">
-        <v>901.7999999999993</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>2351.0</v>
+        <v>901.79999999999927</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="e">
+        <f t="shared" ref="A129:A161" si="101">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B129" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C129" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D129" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E129" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F129" s="3">
         <v>1077.7999999999993</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>2351.0</v>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="e">
+        <f t="shared" ref="A130:A161" si="102">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B130" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C130" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D130" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E130" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F130" s="3">
         <v>1224.7999999999993</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>2351.0</v>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="e">
+        <f t="shared" ref="A131:A161" si="103">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B131" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1">
-        <v>-8.0</v>
+        <v>-8</v>
       </c>
       <c r="D131" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E131" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F131" s="3">
         <v>1430.7999999999993</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>2351.0</v>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="e">
+        <f t="shared" ref="A132:A161" si="104">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B132" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C132" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E132" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F132" s="3">
-        <v>1973.800000000003</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>2351.0</v>
+        <v>1973.8000000000029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="e">
+        <f t="shared" ref="A133:A161" si="105">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B133" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C133" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D133" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E133" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F133" s="3">
-        <v>2071.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>2351.0</v>
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="e">
+        <f t="shared" ref="A134:A161" si="106">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B134" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C134" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D134" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E134" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F134" s="3">
-        <v>2191.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>2352.0</v>
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="e">
+        <f t="shared" ref="A135:A161" si="107">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B135" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C135" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D135" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F135" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>2352.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="e">
+        <f t="shared" ref="A136:A161" si="108">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B136" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C136" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D136" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E136" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F136" s="3">
-        <v>1123.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>2352.0</v>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="e">
+        <f t="shared" ref="A137:A161" si="109">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B137" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C137" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D137" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E137" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F137" s="3">
-        <v>1270.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>2352.0</v>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="e">
+        <f t="shared" ref="A138:A161" si="110">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B138" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C138" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D138" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E138" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F138" s="3">
-        <v>1506.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>2352.0</v>
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="e">
+        <f t="shared" ref="A139:A161" si="111">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B139" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D139" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E139" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F139" s="3">
-        <v>2226.800000000003</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>2352.0</v>
+        <v>2226.8000000000029</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="e">
+        <f t="shared" ref="A140:A161" si="112">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B140" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C140" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D140" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E140" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F140" s="3">
-        <v>2640.800000000003</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>2352.0</v>
+        <v>2640.8000000000029</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="e">
+        <f t="shared" ref="A141:A161" si="113">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B141" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C141" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D141" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E141" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F141" s="3">
-        <v>3516.800000000003</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>2353.0</v>
+        <v>3516.8000000000029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="e">
+        <f t="shared" ref="A142:A161" si="114">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B142" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E142" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F142" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>2353.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="e">
+        <f t="shared" ref="A143:A161" si="115">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B143" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C143" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E143" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F143" s="3">
-        <v>1147.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>2353.0</v>
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="e">
+        <f t="shared" ref="A144:A161" si="116">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B144" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E144" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="3">
-        <v>1333.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>2353.0</v>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="e">
+        <f t="shared" ref="A145:A161" si="117">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B145" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C145" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E145" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F145" s="3">
         <v>1518.9000000000015</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>2353.0</v>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="e">
+        <f t="shared" ref="A146:A161" si="118">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B146" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E146" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F146" s="3">
-        <v>1833.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>2353.0</v>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="e">
+        <f t="shared" ref="A147:A161" si="119">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B147" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D147" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E147" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F147" s="3">
-        <v>1980.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>2353.0</v>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="e">
+        <f t="shared" ref="A148:A161" si="120">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B148" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D148" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E148" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F148" s="3">
         <v>1979.9000000000015</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>2353.0</v>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="e">
+        <f t="shared" ref="A149:A161" si="121">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B149" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C149" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D149" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E149" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3">
-        <v>2355.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>2353.0</v>
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="e">
+        <f t="shared" ref="A150:A161" si="122">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B150" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C150" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E150" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F150" s="3">
         <v>2530.9000000000015</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>2354.0</v>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="e">
+        <f t="shared" ref="A151:A161" si="123">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B151" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C151" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E151" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F151" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>2354.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="e">
+        <f t="shared" ref="A152:A161" si="124">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B152" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E152" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F152" s="3">
-        <v>978.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>2354.0</v>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="e">
+        <f t="shared" ref="A153:A161" si="125">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B153" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D153" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E153" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F153" s="3">
-        <v>1166.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>2354.0</v>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="e">
+        <f t="shared" ref="A154:A161" si="126">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B154" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C154" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E154" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F154" s="3">
-        <v>1442.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>2354.0</v>
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="e">
+        <f t="shared" ref="A155:A161" si="127">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B155" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C155" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D155" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E155" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F155" s="3">
-        <v>1698.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>2354.0</v>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="e">
+        <f t="shared" ref="A156:A161" si="128">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B156" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D156" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E156" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F156" s="3">
-        <v>1828.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>2354.0</v>
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="e">
+        <f t="shared" ref="A157:A161" si="129">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B157" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C157" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D157" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E157" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F157" s="3">
         <v>1827.760000000002</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>2354.0</v>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="e">
+        <f t="shared" ref="A158:A161" si="130">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B158" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C158" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D158" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E158" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F158" s="3">
-        <v>2124.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>2354.0</v>
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="e">
+        <f t="shared" ref="A159:A161" si="131">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B159" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C159" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D159" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E159" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F159" s="3">
-        <v>2636.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>2354.0</v>
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="e">
+        <f t="shared" ref="A160:A161" si="132">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B160" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C160" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F160" s="3">
-        <v>2784.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>2354.0</v>
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="e">
+        <f t="shared" ref="A161" si="133">VLOOKUP(#REF!,$I$25:$J$44,2,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="B161" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C161" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D161" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E161" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F161" s="3">
         <v>2894.760000000002</v>
       </c>
     </row>
-    <row r="162">
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163">
-      <c r="D163" s="2"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>